--- a/docs/Timesheet/a1893169 Jen-Hao Liu/MCI-Timetsheet W1.xlsx
+++ b/docs/Timesheet/a1893169 Jen-Hao Liu/MCI-Timetsheet W1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limeilin/Desktop/MCI Final Project/CI4/docs/Timesheet/a1893169 Jen-Hao Liu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AFEA2B7-C435-0840-8AB7-6423512C5896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC90ECA-9BEF-D641-8364-39C493972941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,7 +686,7 @@
   <dimension ref="A2:AW12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -836,10 +836,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D7" s="15">
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E7" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>21</v>
@@ -903,10 +903,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D8" s="14">
-        <v>0.45833333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E8" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>27</v>
@@ -970,10 +970,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D9" s="14">
-        <v>0.97916666666666663</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E9" s="10">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>26</v>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E12" s="7">
         <f>SUM(E6:E11)</f>
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>
